--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,15 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,58 +67,70 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>family</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>glad</t>
@@ -127,151 +139,142 @@
     <t>cooke</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>husband</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>good</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>new</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>make</t>
+    <t>also</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>made</t>
   </si>
   <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>positive</t>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -751,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4905660377358491</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8699690402476781</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>562</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3953488372093023</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3838383838383838</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1621621621621622</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1004,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1030,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.726027397260274</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1056,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7229437229437229</v>
+        <v>0.65625</v>
       </c>
       <c r="L11">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1082,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6888888888888889</v>
+        <v>0.6524879614767255</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>813</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>813</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1108,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6883116883116883</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L13">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,13 +1134,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6847457627118644</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L14">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1149,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1157,7 +1160,7 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.671875</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L15">
         <v>43</v>
@@ -1175,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1183,13 +1186,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6619718309859155</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1201,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1209,13 +1212,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6470588235294118</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1235,13 +1238,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6332263242375602</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L18">
-        <v>789</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>789</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>457</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1261,13 +1264,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6057142857142858</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1279,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1287,13 +1290,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5789473684210527</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1305,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1313,13 +1316,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5769230769230769</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1331,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1339,13 +1342,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5714285714285714</v>
+        <v>0.5449101796407185</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1365,13 +1368,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1391,13 +1394,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5470085470085471</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L24">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M24">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1409,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1417,13 +1420,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1435,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1443,13 +1446,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5089820359281437</v>
+        <v>0.51</v>
       </c>
       <c r="L26">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1461,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1469,13 +1472,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5060240963855421</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1495,13 +1498,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1513,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1521,13 +1524,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1539,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1547,13 +1550,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4912280701754386</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1573,13 +1576,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4814814814814815</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1591,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1599,13 +1602,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4578313253012048</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L32">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1617,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1625,13 +1628,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.4124513618677043</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1643,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1651,13 +1654,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.443609022556391</v>
+        <v>0.3995098039215687</v>
       </c>
       <c r="L34">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="M34">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1669,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1677,13 +1680,13 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1695,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1703,13 +1706,13 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.4262295081967213</v>
+        <v>0.3643835616438356</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1721,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1729,13 +1732,13 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.4153846153846154</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1747,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1755,13 +1758,13 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3963963963963964</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1781,13 +1784,13 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3813229571984436</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L39">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1799,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>159</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1807,13 +1810,13 @@
         <v>52</v>
       </c>
       <c r="K40">
-        <v>0.3726027397260274</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L40">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1825,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>458</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1833,13 +1836,13 @@
         <v>53</v>
       </c>
       <c r="K41">
-        <v>0.3627450980392157</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="L41">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1851,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>260</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1859,13 +1862,13 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.3383458646616541</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1877,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1885,13 +1888,13 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.3381294964028777</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1903,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1911,13 +1914,13 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.3333333333333333</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1929,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1937,13 +1940,13 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2727272727272727</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L45">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1955,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>152</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1963,13 +1966,13 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.271523178807947</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1981,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1989,13 +1992,13 @@
         <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2574257425742574</v>
+        <v>0.2723358449946179</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2007,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>75</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2015,13 +2018,13 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2551130247578041</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L48">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2033,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>692</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2041,25 +2044,25 @@
         <v>61</v>
       </c>
       <c r="K49">
-        <v>0.25</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L49">
         <v>28</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2067,13 +2070,13 @@
         <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2314814814814815</v>
+        <v>0.2327365728900256</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2085,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>83</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2093,13 +2096,13 @@
         <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2185430463576159</v>
+        <v>0.2278145695364238</v>
       </c>
       <c r="L51">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M51">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2119,13 +2122,13 @@
         <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2068965517241379</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="L52">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M52">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2137,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2145,25 +2148,25 @@
         <v>65</v>
       </c>
       <c r="K53">
-        <v>0.1984635083226632</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L53">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>626</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2171,13 +2174,13 @@
         <v>66</v>
       </c>
       <c r="K54">
-        <v>0.1829268292682927</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2189,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2197,25 +2200,25 @@
         <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1812080536912752</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>122</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2223,13 +2226,13 @@
         <v>68</v>
       </c>
       <c r="K56">
-        <v>0.1694915254237288</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2241,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2249,25 +2252,25 @@
         <v>69</v>
       </c>
       <c r="K57">
-        <v>0.1626794258373206</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L57">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M57">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2275,13 +2278,13 @@
         <v>70</v>
       </c>
       <c r="K58">
-        <v>0.162280701754386</v>
+        <v>0.15</v>
       </c>
       <c r="L58">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2293,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2301,13 +2304,13 @@
         <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1617250673854447</v>
+        <v>0.1469298245614035</v>
       </c>
       <c r="L59">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M59">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2319,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>311</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2327,13 +2330,13 @@
         <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1512915129151292</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="L60">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>230</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2353,25 +2356,25 @@
         <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1512195121951219</v>
+        <v>0.1449814126394052</v>
       </c>
       <c r="L61">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M61">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>348</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2379,13 +2382,13 @@
         <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1477272727272727</v>
+        <v>0.1338199513381995</v>
       </c>
       <c r="L62">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M62">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2397,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2405,25 +2408,25 @@
         <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1237113402061856</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="L63">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M63">
         <v>36</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2431,25 +2434,25 @@
         <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1037037037037037</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2457,25 +2460,25 @@
         <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1008403361344538</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="L65">
         <v>24</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2483,25 +2486,25 @@
         <v>78</v>
       </c>
       <c r="K66">
-        <v>0.09195402298850575</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L66">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M66">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>632</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2509,25 +2512,25 @@
         <v>79</v>
       </c>
       <c r="K67">
-        <v>0.09073900841908325</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="L67">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>972</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2535,25 +2538,25 @@
         <v>80</v>
       </c>
       <c r="K68">
-        <v>0.08870967741935484</v>
+        <v>0.09182209469153516</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>226</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2561,25 +2564,25 @@
         <v>81</v>
       </c>
       <c r="K69">
-        <v>0.08469945355191257</v>
+        <v>0.08776844070961717</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>335</v>
+        <v>977</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2587,25 +2590,25 @@
         <v>82</v>
       </c>
       <c r="K70">
-        <v>0.06839186691312385</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="L70">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>504</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2613,25 +2616,25 @@
         <v>83</v>
       </c>
       <c r="K71">
-        <v>0.06077348066298342</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N71">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>340</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2639,25 +2642,25 @@
         <v>84</v>
       </c>
       <c r="K72">
-        <v>0.0576923076923077</v>
+        <v>0.06053268765133172</v>
       </c>
       <c r="L72">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M72">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N72">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>490</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2665,25 +2668,51 @@
         <v>85</v>
       </c>
       <c r="K73">
-        <v>0.04592720970537262</v>
+        <v>0.05887445887445888</v>
       </c>
       <c r="L73">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="M73">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N73">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O73">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1101</v>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74">
+        <v>0.05852417302798982</v>
+      </c>
+      <c r="L74">
+        <v>23</v>
+      </c>
+      <c r="M74">
+        <v>24</v>
+      </c>
+      <c r="N74">
+        <v>0.96</v>
+      </c>
+      <c r="O74">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
